--- a/classification/droptc/drone-sbert/freeze/87212562/prediction.xlsx
+++ b/classification/droptc/drone-sbert/freeze/87212562/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9505369067192078</v>
+        <v>0.3920386731624603</v>
       </c>
     </row>
     <row r="3">
@@ -511,14 +511,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4271504580974579</v>
+        <v>0.9853397011756897</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7829664945602417</v>
+        <v>0.9865602254867554</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9890162348747253</v>
+        <v>0.9880751967430115</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9879572987556458</v>
+        <v>0.9875121712684631</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9874663949012756</v>
+        <v>0.9879347085952759</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9852632284164429</v>
+        <v>0.8931069374084473</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8655328750610352</v>
+        <v>0.8656592965126038</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.985321581363678</v>
+        <v>0.9893116354942322</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7754530310630798</v>
+        <v>0.9853397011756897</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9866385459899902</v>
+        <v>0.9878230094909668</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9868871569633484</v>
+        <v>0.9881044030189514</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9475899338722229</v>
+        <v>0.9888450503349304</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9395914673805237</v>
+        <v>0.9888221025466919</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9883785843849182</v>
+        <v>0.9882332682609558</v>
       </c>
     </row>
     <row r="17">
@@ -898,19 +898,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9482904076576233</v>
+        <v>0.9873647093772888</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8818218111991882</v>
+        <v>0.9887704849243164</v>
       </c>
     </row>
     <row r="19">
@@ -954,19 +954,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5432851910591125</v>
+        <v>0.9888417720794678</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.988922119140625</v>
+        <v>0.9887838959693909</v>
       </c>
     </row>
     <row r="21">
@@ -1015,14 +1015,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9865812063217163</v>
+        <v>0.9471139311790466</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3950757682323456</v>
+        <v>0.9867321848869324</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9889397025108337</v>
+        <v>0.9865810871124268</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8788851499557495</v>
+        <v>0.9887704849243164</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9887258410453796</v>
+        <v>0.9405393004417419</v>
       </c>
     </row>
     <row r="26">
@@ -1155,14 +1155,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9479426741600037</v>
+        <v>0.5312805771827698</v>
       </c>
     </row>
     <row r="27">
@@ -1178,19 +1178,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6324911713600159</v>
+        <v>0.9440764188766479</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9853775501251221</v>
+        <v>0.9873090386390686</v>
       </c>
     </row>
     <row r="29">
@@ -1234,19 +1234,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9851491451263428</v>
+        <v>0.940474271774292</v>
       </c>
     </row>
     <row r="30">
@@ -1262,19 +1262,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9867091178894043</v>
+        <v>0.9224253296852112</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9893534183502197</v>
+        <v>0.9278580546379089</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9893769025802612</v>
+        <v>0.9885507225990295</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9894989728927612</v>
+        <v>0.9891912341117859</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9875233769416809</v>
+        <v>0.9891663193702698</v>
       </c>
     </row>
     <row r="35">
@@ -1407,14 +1407,14 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9494016170501709</v>
+        <v>0.9893916845321655</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8716369867324829</v>
+        <v>0.98674076795578</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9880736470222473</v>
+        <v>0.9853649735450745</v>
       </c>
     </row>
     <row r="38">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9853188991546631</v>
+        <v>0.5561543703079224</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9883592128753662</v>
+        <v>0.9874415397644043</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9894773364067078</v>
+        <v>0.9874124526977539</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9867618083953857</v>
+        <v>0.9886515140533447</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9464885592460632</v>
+        <v>0.9882509112358093</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.937646746635437</v>
+        <v>0.987561047077179</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9513788819313049</v>
+        <v>0.9853383302688599</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8788851499557495</v>
+        <v>0.9874179363250732</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9882395267486572</v>
+        <v>0.9882668852806091</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9879441261291504</v>
+        <v>0.9874231815338135</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9886385798454285</v>
+        <v>0.9345775246620178</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9866325855255127</v>
+        <v>0.9171056151390076</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5461409687995911</v>
+        <v>0.9878515601158142</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9874454736709595</v>
+        <v>0.9887776970863342</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9883225560188293</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9479426741600037</v>
+        <v>0.9853389263153076</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9867074489593506</v>
+        <v>0.9879282116889954</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9883460402488708</v>
+        <v>0.9405393004417419</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.943571925163269</v>
+        <v>0.9879024624824524</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9883434176445007</v>
+        <v>0.987338662147522</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9887077808380127</v>
+        <v>0.940474271774292</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9854432344436646</v>
+        <v>0.9445540308952332</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9350041747093201</v>
+        <v>0.9307838082313538</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9874546527862549</v>
+        <v>0.9874494075775146</v>
       </c>
     </row>
     <row r="62">
@@ -2158,19 +2158,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9451481699943542</v>
+        <v>0.9880917072296143</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9380519390106201</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9476418495178223</v>
+        <v>0.8826274871826172</v>
       </c>
     </row>
     <row r="65">
@@ -2247,14 +2247,14 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9893704652786255</v>
+        <v>0.7665011882781982</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9883667826652527</v>
+        <v>0.9882457256317139</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9851995706558228</v>
+        <v>0.9874093532562256</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.818044126033783</v>
+        <v>0.9342134594917297</v>
       </c>
     </row>
     <row r="69">
@@ -2359,14 +2359,14 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9867501854896545</v>
+        <v>0.7930184602737427</v>
       </c>
     </row>
     <row r="70">
@@ -2382,19 +2382,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.988482654094696</v>
+        <v>0.9459930062294006</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9876264929771423</v>
+        <v>0.9471403360366821</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9875367283821106</v>
+        <v>0.9879343509674072</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9866885542869568</v>
+        <v>0.9221485257148743</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9238815307617188</v>
+        <v>0.9875396490097046</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9894233345985413</v>
+        <v>0.865365743637085</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9310824871063232</v>
+        <v>0.8880881667137146</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.910664975643158</v>
+        <v>0.9886709451675415</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9479426741600037</v>
+        <v>0.9867222309112549</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9866784811019897</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9888325929641724</v>
+        <v>0.9882246255874634</v>
       </c>
     </row>
     <row r="81">
@@ -2690,19 +2690,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E81" t="b">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9439972639083862</v>
+        <v>0.9866510629653931</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.3521118760108948</v>
+        <v>0.9348859190940857</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9873726963996887</v>
+        <v>0.9882424473762512</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9866487383842468</v>
+        <v>0.9829189777374268</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.7853519916534424</v>
+        <v>0.9880113005638123</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9866513013839722</v>
+        <v>0.988953709602356</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9895265102386475</v>
+        <v>0.8698522448539734</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9238815307617188</v>
+        <v>0.8912253975868225</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9867333769798279</v>
+        <v>0.9891562461853027</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9893534183502197</v>
+        <v>0.9866433143615723</v>
       </c>
     </row>
     <row r="91">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9883435964584351</v>
+        <v>0.9210994839668274</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9879781007766724</v>
+        <v>0.9866433143615723</v>
       </c>
     </row>
     <row r="93">
@@ -3026,19 +3026,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E93" t="b">
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9880279302597046</v>
+        <v>0.9103772044181824</v>
       </c>
     </row>
     <row r="94">
@@ -3059,14 +3059,14 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.6339196562767029</v>
+        <v>0.9866597652435303</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9394904971122742</v>
+        <v>0.9853330254554749</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.7491223216056824</v>
+        <v>0.9252219200134277</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9846131801605225</v>
+        <v>0.864798903465271</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9391817450523376</v>
+        <v>0.911280632019043</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5038356781005859</v>
+        <v>0.9867428541183472</v>
       </c>
     </row>
     <row r="100">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="E100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.988922119140625</v>
+        <v>0.8422234654426575</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9476932287216187</v>
+        <v>0.9439283013343811</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.98799067735672</v>
+        <v>0.7539857029914856</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9882044792175293</v>
       </c>
     </row>
     <row r="104">
@@ -3334,19 +3334,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.988260805606842</v>
+        <v>0.8415423035621643</v>
       </c>
     </row>
     <row r="105">
@@ -3367,14 +3367,14 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9883295297622681</v>
+        <v>0.8866263628005981</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9887980818748474</v>
+        <v>0.9866510629653931</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.7852147221565247</v>
+        <v>0.9887726902961731</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.8476319313049316</v>
+        <v>0.9402260184288025</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.98911052942276</v>
+        <v>0.9220304489135742</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E110" t="b">
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8788851499557495</v>
+        <v>0.9268074035644531</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9879680871963501</v>
+        <v>0.9882434010505676</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9875264763832092</v>
+        <v>0.9874927997589111</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9882596731185913</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8823466300964355</v>
+        <v>0.9852963089942932</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.6218952536582947</v>
+        <v>0.8475778698921204</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9446672201156616</v>
+        <v>0.9865750670433044</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7826108336448669</v>
+        <v>0.9440764188766479</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9886379837989807</v>
+        <v>0.9853330254554749</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9881298542022705</v>
+        <v>0.98661208152771</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9888995885848999</v>
+        <v>0.9883638620376587</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9879706501960754</v>
+        <v>0.9405393004417419</v>
       </c>
     </row>
     <row r="122">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5637888312339783</v>
+        <v>0.9166088700294495</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.8786795735359192</v>
+        <v>0.9865913987159729</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9444196224212646</v>
+        <v>0.9853397011756897</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9867044687271118</v>
+        <v>0.9264650940895081</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9446672201156616</v>
+        <v>0.9879420399665833</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9866901636123657</v>
+        <v>0.985238790512085</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9305458068847656</v>
+        <v>0.9866927266120911</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9874146580696106</v>
+        <v>0.9434298276901245</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9867501854896545</v>
+        <v>0.8981055021286011</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9872776865959167</v>
+        <v>0.9853397011756897</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9893398880958557</v>
+        <v>0.9891934990882874</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9865825772285461</v>
+        <v>0.987390398979187</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9867559671401978</v>
+        <v>0.988737940788269</v>
       </c>
     </row>
     <row r="135">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8830226063728333</v>
+        <v>0.4606558680534363</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9805886149406433</v>
+        <v>0.988419771194458</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9505507946014404</v>
+        <v>0.9103772044181824</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.7851717472076416</v>
+        <v>0.9878485202789307</v>
       </c>
     </row>
     <row r="139">
@@ -4314,19 +4314,19 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E139" t="b">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9883621335029602</v>
+        <v>0.9451777935028076</v>
       </c>
     </row>
     <row r="140">
@@ -4347,14 +4347,14 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9855276346206665</v>
+        <v>0.6816427707672119</v>
       </c>
     </row>
     <row r="141">
@@ -4375,14 +4375,14 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9867618083953857</v>
+        <v>0.9454630017280579</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.941521167755127</v>
+        <v>0.9876943826675415</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9885486364364624</v>
+        <v>0.9852461218833923</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9867091178894043</v>
+        <v>0.9864751696586609</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9895833730697632</v>
+        <v>0.9893084764480591</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9867501854896545</v>
+        <v>0.9436404705047607</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9340145587921143</v>
+        <v>0.9893235564231873</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9868173003196716</v>
+        <v>0.9885817170143127</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9853775501251221</v>
+        <v>0.9463638663291931</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9327421188354492</v>
+        <v>0.9439283013343811</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.987848162651062</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9483469724655151</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9446672201156616</v>
+        <v>0.9853397011756897</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9895263910293579</v>
+        <v>0.4750702381134033</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9893552660942078</v>
+        <v>0.9866510629653931</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9891949892044067</v>
+        <v>0.9866690635681152</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9882071614265442</v>
+        <v>0.989051878452301</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9171056151390076</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9883601665496826</v>
+        <v>0.9853397011756897</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9438416361808777</v>
+        <v>0.9880962371826172</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9827238917350769</v>
+        <v>0.9855433702468872</v>
       </c>
     </row>
     <row r="162">
@@ -4958,19 +4958,19 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9888898134231567</v>
+        <v>0.8680447340011597</v>
       </c>
     </row>
     <row r="163">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E163" t="b">
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9357576370239258</v>
+        <v>0.9887017011642456</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9385473728179932</v>
+        <v>0.9883855581283569</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9868118166923523</v>
+        <v>0.9853397011756897</v>
       </c>
     </row>
     <row r="166">
@@ -5070,19 +5070,19 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E166" t="b">
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9853410124778748</v>
+        <v>0.8937292695045471</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9881209135055542</v>
+        <v>0.9854488968849182</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9491302967071533</v>
+        <v>0.9853397011756897</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9019412994384766</v>
+        <v>0.9891663193702698</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.988243043422699</v>
+        <v>0.989232063293457</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9867096543312073</v>
+        <v>0.9866980910301208</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.98272705078125</v>
+        <v>0.9782145023345947</v>
       </c>
     </row>
     <row r="173">
@@ -5271,14 +5271,14 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.988925039768219</v>
+        <v>0.5099493861198425</v>
       </c>
     </row>
     <row r="174">
@@ -5294,19 +5294,19 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E174" t="b">
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9881906509399414</v>
+        <v>0.8891125321388245</v>
       </c>
     </row>
     <row r="175">
@@ -5322,19 +5322,19 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E175" t="b">
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9875022172927856</v>
+        <v>0.8656592965126038</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9443725347518921</v>
+        <v>0.7717190980911255</v>
       </c>
     </row>
     <row r="177">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.924184262752533</v>
+        <v>0.9423190355300903</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9443725347518921</v>
+        <v>0.9412076473236084</v>
       </c>
     </row>
     <row r="179">
@@ -5434,19 +5434,19 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E179" t="b">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9879789352416992</v>
+        <v>0.9440764188766479</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9874632358551025</v>
+        <v>0.9880551695823669</v>
       </c>
     </row>
     <row r="181">
@@ -5490,19 +5490,19 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E181" t="b">
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9892356991767883</v>
+        <v>0.9245851039886475</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9305458068847656</v>
+        <v>0.9885637760162354</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.4209804534912109</v>
+        <v>0.8656592965126038</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9889602661132812</v>
+        <v>0.9245167970657349</v>
       </c>
     </row>
     <row r="185">
@@ -5602,19 +5602,19 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E185" t="b">
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9779716730117798</v>
+        <v>0.4736341238021851</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9372599720954895</v>
+        <v>0.9828823804855347</v>
       </c>
     </row>
     <row r="187">
@@ -5658,19 +5658,19 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E187" t="b">
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.6055073738098145</v>
+        <v>0.9890978336334229</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9881068468093872</v>
+        <v>0.9886548519134521</v>
       </c>
     </row>
     <row r="189">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9884846806526184</v>
+        <v>0.9371867775917053</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9524835348129272</v>
+        <v>0.9885944128036499</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9876691699028015</v>
+        <v>0.8933472037315369</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9880800843238831</v>
+        <v>0.9812029004096985</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9401558041572571</v>
+        <v>0.9872816205024719</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9879705309867859</v>
+        <v>0.98659348487854</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9887945652008057</v>
+        <v>0.9885027408599854</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.98799729347229</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9294271469116211</v>
+        <v>0.927855908870697</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9874788522720337</v>
+        <v>0.2937935590744019</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.775861382484436</v>
+        <v>0.8606974482536316</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.3186626434326172</v>
+        <v>0.9849077463150024</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.8786795735359192</v>
+        <v>0.9893049001693726</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9476932287216187</v>
+        <v>0.9878118634223938</v>
       </c>
     </row>
     <row r="203">
@@ -6106,19 +6106,19 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E203" t="b">
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9887024164199829</v>
+        <v>0.2990984618663788</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9403328895568848</v>
+        <v>0.9868032336235046</v>
       </c>
     </row>
     <row r="205">
@@ -6162,19 +6162,19 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E205" t="b">
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9503456354141235</v>
+        <v>0.864798903465271</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9888717532157898</v>
+        <v>0.9401389360427856</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9874962568283081</v>
+        <v>0.9866607189178467</v>
       </c>
     </row>
     <row r="208">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="E208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9337078928947449</v>
+        <v>0.9828727841377258</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9827663898468018</v>
+        <v>0.9893316030502319</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9888618588447571</v>
+        <v>0.9853397011756897</v>
       </c>
     </row>
   </sheetData>
